--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1098322.327211167</v>
+        <v>1135346.959753701</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7407914.716616701</v>
+        <v>7898523.796426227</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>49.53842828501017</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>127.4551843441466</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -823,13 +825,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>218.775754413495</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>191.5240914718099</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +901,7 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -908,13 +910,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -962,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>390.8310512060214</v>
+        <v>205.0873641277763</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>134.7567645601903</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>118.9693540944499</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1136,19 +1138,19 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>80.11775047948045</v>
       </c>
       <c r="W8" t="n">
-        <v>127.4551843441467</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>80.96206012172688</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>7.098427391118505</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1348,13 +1350,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1385,10 +1387,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,10 +1429,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>89.08765083043198</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1543,7 +1545,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1588,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>111.3190970511839</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>111.9813210128649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1609,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D14" t="n">
-        <v>149.3148410057541</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1664,16 +1666,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>59.70406721933355</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>53.03228358185907</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>113.9811728869526</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>164.1654629763025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2242,10 +2244,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>221.5389288874897</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>111.1800590294273</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>90.86382889645651</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2770,13 +2772,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>247.1465170578747</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>135.7468035496482</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2959,13 +2961,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>154.5259717924262</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>123.2089098739606</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>60.15466974967032</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>183.8315847877356</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3433,13 +3435,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>112.2192622328896</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3475,10 +3477,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>10.99039986782783</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3515,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,10 +3714,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>80.73882603403233</v>
+        <v>238.0472340876699</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3746,19 +3748,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3793,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>5.501971382161</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3952,19 +3954,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>71.78780711257758</v>
       </c>
       <c r="W43" t="n">
-        <v>138.056712211994</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -4034,13 +4036,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>167.2528523896933</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>126.6893987380297</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>187.21057685784</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4198,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1066.753158251661</v>
+        <v>966.965586482338</v>
       </c>
       <c r="C2" t="n">
-        <v>639.8524282649616</v>
+        <v>540.0648564956382</v>
       </c>
       <c r="D2" t="n">
-        <v>216.5598074499619</v>
+        <v>520.8126397210425</v>
       </c>
       <c r="E2" t="n">
-        <v>194.6232716382235</v>
+        <v>94.83569986890006</v>
       </c>
       <c r="F2" t="n">
-        <v>173.5394938680278</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>173.2408354978805</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
         <v>44.49822504924753</v>
@@ -4340,40 +4342,40 @@
         <v>1508.432753835019</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596036</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>1556.689382596036</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>1899.61838738015</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>1899.61838738015</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W2" t="n">
-        <v>1899.61838738015</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X2" t="n">
-        <v>1891.938792588301</v>
+        <v>984.0704127381697</v>
       </c>
       <c r="Y2" t="n">
-        <v>1486.601522543192</v>
+        <v>982.7735467334641</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>51.94486801115937</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M3" t="n">
-        <v>201.1892506764427</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N3" t="n">
-        <v>751.8547856608809</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.520320645319</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>623.3523977951305</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>451.3798346740465</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>288.0630618008172</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>288.0630618008172</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
         <v>288.0630618008172</v>
@@ -4510,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1811.436857207411</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U4" t="n">
-        <v>1531.252408707716</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="V4" t="n">
-        <v>1249.540941315744</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="W4" t="n">
-        <v>1249.540941315744</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>1006.97704476155</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>813.5183665071961</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>427.7981182481856</v>
+        <v>972.9074190595574</v>
       </c>
       <c r="C5" t="n">
-        <v>404.9377923018898</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D5" t="n">
-        <v>385.6855755272941</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>363.7490397155557</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>342.66526194536</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4568,22 +4570,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="L5" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="M5" t="n">
         <v>957.7672188505812</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>1508.432753835019</v>
       </c>
-      <c r="M5" t="n">
-        <v>1674.245717477938</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1674.245717477938</v>
-      </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4601,16 +4603,16 @@
         <v>2003.98568150701</v>
       </c>
       <c r="V5" t="n">
-        <v>1646.496266633259</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W5" t="n">
-        <v>1250.104916933606</v>
+        <v>1607.594331807357</v>
       </c>
       <c r="X5" t="n">
-        <v>838.3849181013534</v>
+        <v>1195.874332975104</v>
       </c>
       <c r="Y5" t="n">
-        <v>443.6060784993115</v>
+        <v>988.7153793106834</v>
       </c>
     </row>
     <row r="6">
@@ -4647,25 +4649,25 @@
         <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>201.1892506764427</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>545.9337418536843</v>
+        <v>645.7643351504313</v>
       </c>
       <c r="C7" t="n">
-        <v>545.9337418536843</v>
+        <v>473.7917720293473</v>
       </c>
       <c r="D7" t="n">
-        <v>382.616968980455</v>
+        <v>310.474999156118</v>
       </c>
       <c r="E7" t="n">
-        <v>382.616968980455</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7551947550154</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4732,43 +4734,43 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2041.754695149357</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>2041.754695149357</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U7" t="n">
-        <v>1761.570246649661</v>
+        <v>1861.400839946408</v>
       </c>
       <c r="V7" t="n">
-        <v>1479.85877925769</v>
+        <v>1579.689372554437</v>
       </c>
       <c r="W7" t="n">
-        <v>1205.006375430203</v>
+        <v>1304.83696872695</v>
       </c>
       <c r="X7" t="n">
-        <v>962.442478876008</v>
+        <v>1062.273072172755</v>
       </c>
       <c r="Y7" t="n">
-        <v>736.09971056575</v>
+        <v>835.9303038624969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1746.091355883837</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C8" t="n">
-        <v>1723.231029937541</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>1299.938409122541</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4802,52 +4804,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.432753835019</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M8" t="n">
-        <v>2059.098288819458</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N8" t="n">
-        <v>2059.098288819458</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>2059.098288819458</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>1899.61838738015</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="W8" t="n">
-        <v>1770.875776931517</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="X8" t="n">
-        <v>1763.196182139668</v>
+        <v>1252.983752584825</v>
       </c>
       <c r="Y8" t="n">
-        <v>1761.899316134963</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>423.6702648437783</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>423.6702648437783</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>577.4153955460176</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M9" t="n">
-        <v>577.4153955460176</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N9" t="n">
-        <v>577.4153955460176</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O9" t="n">
-        <v>1128.080930530456</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P9" t="n">
-        <v>1678.746465514894</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>458.7432593109769</v>
+        <v>962.9877020259423</v>
       </c>
       <c r="C10" t="n">
-        <v>376.9634006021619</v>
+        <v>791.0151389048583</v>
       </c>
       <c r="D10" t="n">
-        <v>376.9634006021619</v>
+        <v>627.698366031629</v>
       </c>
       <c r="E10" t="n">
-        <v>210.7551947550154</v>
+        <v>461.4901601844825</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7551947550154</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4987,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>1153.153670738008</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1743.414955385085</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>1743.414955385085</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.122334570086</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>894.1453947179433</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>469.0212129073435</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>715.2263527642958</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L11" t="n">
-        <v>1515.667965162099</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M11" t="n">
-        <v>2316.109577559901</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="N11" t="n">
-        <v>2316.109577559901</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O11" t="n">
-        <v>3116.551189957705</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2560.472224262448</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2560.472224262448</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2148.752225430195</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>1743.414955385085</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>64.68215049679215</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="M12" t="n">
-        <v>272.4865562816963</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N12" t="n">
-        <v>1072.928168679499</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1004.067004529183</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>832.0944414080994</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>668.7776685348701</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>502.5694626877237</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>330.7076884622841</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>164.4507187565162</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2074.960130429055</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>1831.620782654955</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>1831.620782654955</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="V13" t="n">
-        <v>1549.909315262984</v>
+        <v>1538.265496332355</v>
       </c>
       <c r="W13" t="n">
-        <v>1549.909315262984</v>
+        <v>1425.821963957422</v>
       </c>
       <c r="X13" t="n">
-        <v>1307.345418708789</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="Y13" t="n">
-        <v>1194.232973241249</v>
+        <v>1183.258067403227</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2230.611386062264</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>1803.710656075564</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.88758435258</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>1226.910644500437</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>801.7864626898374</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>397.4474002792861</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L14" t="n">
-        <v>715.2263527642958</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M14" t="n">
-        <v>1515.667965162099</v>
+        <v>2396.59155273422</v>
       </c>
       <c r="N14" t="n">
-        <v>2316.109577559901</v>
+        <v>3372.842611220921</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.551189957705</v>
+        <v>4217.987261371733</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957705</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2650.459750353793</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2650.459750353793</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>2650.459750353793</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2650.459750353793</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679215</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L15" t="n">
-        <v>64.68215049679215</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M15" t="n">
-        <v>865.123762894595</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N15" t="n">
-        <v>1665.565375292398</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>975.890709899945</v>
+        <v>867.4892357902974</v>
       </c>
       <c r="C16" t="n">
-        <v>975.890709899945</v>
+        <v>867.4892357902974</v>
       </c>
       <c r="D16" t="n">
-        <v>812.5739370267157</v>
+        <v>704.1724629170681</v>
       </c>
       <c r="E16" t="n">
-        <v>646.3657311795693</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541296</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T16" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.527214695921</v>
+        <v>1953.266910479596</v>
       </c>
       <c r="V16" t="n">
-        <v>1909.815747303951</v>
+        <v>1671.555443087625</v>
       </c>
       <c r="W16" t="n">
-        <v>1634.963343476463</v>
+        <v>1396.703039260138</v>
       </c>
       <c r="X16" t="n">
-        <v>1392.399446922269</v>
+        <v>1154.139142705943</v>
       </c>
       <c r="Y16" t="n">
-        <v>1166.056678612011</v>
+        <v>927.7963743956848</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,13 +5503,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5516,25 +5518,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478504</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5549,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>772.98449592559</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>772.98449592559</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.4138558574795</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C19" t="n">
-        <v>675.4412927363954</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="D19" t="n">
-        <v>512.1245198631661</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="E19" t="n">
-        <v>512.1245198631661</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>2002.531292319261</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.81982492729</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1445.967421099803</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1203.403524545608</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>1037.579824569545</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,40 +5740,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5835,16 +5837,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>939.1015214887346</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.582799500206</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>326.3817789554925</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C22" t="n">
-        <v>154.4092158344085</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D22" t="n">
-        <v>154.4092158344085</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E22" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5947,13 +5949,13 @@
         <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1036.530120513549</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>793.966223959354</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6063,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>703.5067984699893</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C25" t="n">
-        <v>703.5067984699893</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="D25" t="n">
-        <v>540.1900255967601</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E25" t="n">
-        <v>540.1900255967601</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F25" t="n">
-        <v>368.3282513713204</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6187,10 +6189,10 @@
         <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>893.6727671820549</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>893.6727671820549</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,40 +6214,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6260,10 +6262,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X26" t="n">
         <v>3365.887132399955</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>4025.820723818557</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>5115.135670291427</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O27" t="n">
-        <v>5115.135670291427</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P27" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q27" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3408.04389009052</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="C28" t="n">
-        <v>3408.04389009052</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D28" t="n">
-        <v>3244.727117217291</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>4871.796322517327</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>4591.611874017632</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>4341.968927494526</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>4067.116523667039</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>3824.552627112844</v>
+        <v>848.3364291485279</v>
       </c>
       <c r="Y28" t="n">
-        <v>3598.209858802586</v>
+        <v>621.99366083827</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6549,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.715267670341</v>
+        <v>759.8870954416583</v>
       </c>
       <c r="C31" t="n">
-        <v>913.7427045492574</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>424.597759447345</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>258.3895536001985</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U31" t="n">
-        <v>1869.241345563992</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V31" t="n">
-        <v>1869.241345563992</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W31" t="n">
-        <v>1744.78790124686</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X31" t="n">
-        <v>1502.224004692665</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.881236382407</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="32">
@@ -6713,13 +6715,13 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,19 +6788,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>855.9100933510683</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>683.9375302299843</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D34" t="n">
-        <v>683.9375302299843</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="E34" t="n">
-        <v>517.7293243828378</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="F34" t="n">
-        <v>345.8675501573982</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6886,22 +6888,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1785.357631525569</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1599.669162043008</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1324.816758215521</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1082.252861661326</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>855.9100933510683</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6935,22 +6937,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.799010768326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.799010768326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1210.799010768326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1210.799010768326</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.167063056836</v>
+        <v>653.604840768015</v>
       </c>
       <c r="C37" t="n">
-        <v>850.1944999357522</v>
+        <v>481.632277646931</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>481.632277646931</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>315.4240717997845</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>315.4240717997845</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
         <v>202.0712816655526</v>
@@ -7123,22 +7125,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2101.479279330185</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1821.294830830489</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V37" t="n">
-        <v>1539.583363438518</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W37" t="n">
-        <v>1264.730959611031</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X37" t="n">
-        <v>1022.167063056836</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.167063056836</v>
+        <v>843.7708094800807</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7156,13 @@
         <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883225</v>
@@ -7184,16 +7186,16 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7260,10 +7262,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>678.3327257103126</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C40" t="n">
-        <v>678.3327257103126</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D40" t="n">
-        <v>678.3327257103126</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>512.1245198631661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7360,22 +7362,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1983.987710293919</v>
+        <v>1825.090328421558</v>
       </c>
       <c r="U40" t="n">
-        <v>1703.803261794224</v>
+        <v>1825.090328421558</v>
       </c>
       <c r="V40" t="n">
-        <v>1422.091794402252</v>
+        <v>1543.378861029587</v>
       </c>
       <c r="W40" t="n">
-        <v>1147.239390574765</v>
+        <v>1268.5264572021</v>
       </c>
       <c r="X40" t="n">
-        <v>904.6754940205706</v>
+        <v>1025.962560647905</v>
       </c>
       <c r="Y40" t="n">
-        <v>678.3327257103126</v>
+        <v>799.6197923376471</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1637.868061635057</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>1210.967331648357</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>787.674710833357</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>787.674710833357</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>362.5505290227573</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>362.5505290227573</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>64.68215049679215</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L41" t="n">
-        <v>64.68215049679215</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>468.8595413818907</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N41" t="n">
-        <v>1269.301153779694</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O41" t="n">
-        <v>2069.742766177496</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="P41" t="n">
-        <v>2778.022045335424</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>3129.740230712748</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>2871.38532130916</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V41" t="n">
-        <v>2871.38532130916</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>2474.993971609507</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>2063.273972777254</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2057.716425926586</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1992.543385290553</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>1875.037481808058</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>1771.197523323343</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>1666.49558959628</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>1572.849759279184</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>1478.795987496788</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>1425.419894259098</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>1432.86653722101</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>1432.86653722101</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>1633.224300044002</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L42" t="n">
-        <v>1633.224300044002</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M42" t="n">
-        <v>2433.665912441805</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N42" t="n">
-        <v>3234.107524839607</v>
+        <v>1779.8768179202</v>
       </c>
       <c r="O42" t="n">
-        <v>3234.107524839607</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P42" t="n">
-        <v>3234.107524839607</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q42" t="n">
-        <v>3234.107524839607</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
-        <v>3234.107524839607</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>3152.783277400862</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>3010.90334169854</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>2826.135145618177</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>2621.162006757443</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>2424.64062959066</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>2261.163283357324</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>2121.470394710616</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1147.863273021029</v>
+        <v>3906.615339060613</v>
       </c>
       <c r="C43" t="n">
-        <v>975.890709899945</v>
+        <v>3734.642775939529</v>
       </c>
       <c r="D43" t="n">
-        <v>812.5739370267157</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="E43" t="n">
-        <v>646.3657311795693</v>
+        <v>3405.117797219153</v>
       </c>
       <c r="F43" t="n">
-        <v>474.5039569541296</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G43" t="n">
-        <v>308.2469872483618</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T43" t="n">
-        <v>2001.75583013582</v>
+        <v>4760.507896175404</v>
       </c>
       <c r="U43" t="n">
-        <v>2001.75583013582</v>
+        <v>4480.323447675709</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.044362743849</v>
+        <v>4407.810511198358</v>
       </c>
       <c r="W43" t="n">
-        <v>1580.59313828729</v>
+        <v>4132.95810737087</v>
       </c>
       <c r="X43" t="n">
-        <v>1338.029241733095</v>
+        <v>4132.95810737087</v>
       </c>
       <c r="Y43" t="n">
-        <v>1338.029241733095</v>
+        <v>3906.615339060613</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2076.18020516758</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>2076.18020516758</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.88758435258</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>1226.910644500437</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>801.7864626898374</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>397.4474002792861</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679215</v>
+        <v>811.7639428804554</v>
       </c>
       <c r="L44" t="n">
-        <v>865.123762894595</v>
+        <v>1741.388990499732</v>
       </c>
       <c r="M44" t="n">
-        <v>1665.565375292398</v>
+        <v>2745.67509191879</v>
       </c>
       <c r="N44" t="n">
-        <v>2466.006987690201</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O44" t="n">
-        <v>3234.107524839607</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>3234.107524839607</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>2650.459750353793</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>2481.517475212689</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>2481.517475212689</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2076.18020516758</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L45" t="n">
-        <v>64.68215049679215</v>
+        <v>4031.958421451902</v>
       </c>
       <c r="M45" t="n">
-        <v>865.123762894595</v>
+        <v>4031.958421451902</v>
       </c>
       <c r="N45" t="n">
-        <v>1665.565375292398</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1147.863273021029</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="C46" t="n">
-        <v>975.890709899945</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267157</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795693</v>
+        <v>3405.117797219153</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S46" t="n">
-        <v>2074.960130429055</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T46" t="n">
-        <v>2074.960130429055</v>
+        <v>4543.334235381712</v>
       </c>
       <c r="U46" t="n">
-        <v>2074.960130429055</v>
+        <v>4354.232642596015</v>
       </c>
       <c r="V46" t="n">
-        <v>1793.248663037084</v>
+        <v>4072.521175204045</v>
       </c>
       <c r="W46" t="n">
-        <v>1518.396259209597</v>
+        <v>3797.668771376558</v>
       </c>
       <c r="X46" t="n">
-        <v>1275.832362655402</v>
+        <v>3797.668771376558</v>
       </c>
       <c r="Y46" t="n">
-        <v>1275.832362655402</v>
+        <v>3571.3260030663</v>
       </c>
     </row>
   </sheetData>
@@ -7988,19 +7990,19 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>86.02369229001789</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8061,13 +8063,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>173.8486821944324</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>96.76900350898819</v>
       </c>
       <c r="O3" t="n">
         <v>579.3997028378163</v>
@@ -8079,7 +8081,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>204.9191049629863</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8295,16 +8297,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>173.266988396334</v>
+        <v>177.8131985346731</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8313,10 +8315,10 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8380,7 +8382,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281034</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>86.31943126580316</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>177.8131985346733</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>461.8305092169925</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,28 +8692,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>692.8799566205706</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093336</v>
+        <v>1035.799731739446</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,16 +8774,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M12" t="n">
-        <v>233.0002206990998</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>829.8699094234435</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>695.4273982583842</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>251.9371478624388</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9006,28 +9008,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>233.0753299089942</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,28 +9166,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>705.1634862205228</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>625.182225377852</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>417.8918098719783</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9252,7 +9254,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9264,7 +9266,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>217.3512730059682</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,19 +9485,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P21" t="n">
-        <v>105.0107851302144</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9647,19 +9649,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>117.3609790173131</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9893,10 +9895,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10124,16 +10126,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130257</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10361,7 +10363,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>356.8654072451563</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
@@ -10370,7 +10372,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,22 +10436,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10677,16 +10679,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>420.03429863453</v>
       </c>
       <c r="P36" t="n">
-        <v>729.034814152316</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,19 +10834,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>276.0147300838795</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>121.8329647736533</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11060,22 +11062,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>445.6912536924607</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659259</v>
+        <v>867.7084382103637</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11133,25 +11135,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>224.7808124424162</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234435</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>70.51375583797689</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11160,7 +11162,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>754.6403563518451</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>813.250087789768</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,16 +11381,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234435</v>
+        <v>1003.048909524251</v>
       </c>
       <c r="O45" t="n">
-        <v>233.0753299089942</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,10 +23317,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>264.826869894581</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>160.7847827380282</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>112.0980196142905</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D14" t="n">
-        <v>269.7448536010955</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>128.5602418056114</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -23707,7 +23709,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>224.3503204328397</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>56.16198359623262</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.91387765085287</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -24145,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>47.18544517283262</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>50.56495090172237</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24369,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>50.50354611506967</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24382,7 +24384,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>149.2744286921964</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -24616,7 +24618,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>31.74783566017663</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>104.3914540390047</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>15.61718469075893</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>148.8949699152515</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>38.61621282745647</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>95.06276793031577</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>52.37513777582056</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.9155544285312</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1671282623267</v>
+        <v>2.858720208689135</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>395.7819259624976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>207.1065456054738</v>
       </c>
       <c r="W43" t="n">
-        <v>134.0471675772181</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25922,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>225.1745838129633</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>61.57491028691533</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>90.17202715685875</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>671923.4440687699</v>
+        <v>671923.4440687698</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>511875.3832828919</v>
+        <v>679785.8259989563</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>511875.3832828922</v>
+        <v>679785.8259989565</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>690344.7170802082</v>
+        <v>690344.7170802081</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>690344.717080208</v>
+        <v>690344.7170802081</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>511875.3832828919</v>
+        <v>679785.8259989563</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>511875.3832828919</v>
+        <v>679785.8259989565</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>407709.8676078143</v>
+      </c>
+      <c r="C2" t="n">
         <v>407709.8676078142</v>
       </c>
-      <c r="C2" t="n">
-        <v>407709.867607814</v>
-      </c>
       <c r="D2" t="n">
-        <v>407709.8676078143</v>
+        <v>407709.8676078141</v>
       </c>
       <c r="E2" t="n">
-        <v>291733.7584019221</v>
+        <v>387405.0806156914</v>
       </c>
       <c r="F2" t="n">
-        <v>291733.7584019221</v>
+        <v>387405.0806156912</v>
       </c>
       <c r="G2" t="n">
+        <v>393421.2821962135</v>
+      </c>
+      <c r="H2" t="n">
         <v>393421.2821962133</v>
       </c>
-      <c r="H2" t="n">
-        <v>393421.2821962132</v>
-      </c>
       <c r="I2" t="n">
-        <v>393421.2821962133</v>
+        <v>393421.2821962134</v>
       </c>
       <c r="J2" t="n">
         <v>393421.2821962133</v>
       </c>
       <c r="K2" t="n">
+        <v>393421.2821962131</v>
+      </c>
+      <c r="L2" t="n">
         <v>393421.2821962133</v>
       </c>
-      <c r="L2" t="n">
-        <v>393421.2821962132</v>
-      </c>
       <c r="M2" t="n">
-        <v>393421.2821962132</v>
+        <v>393421.2821962131</v>
       </c>
       <c r="N2" t="n">
-        <v>393421.2821962134</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="O2" t="n">
-        <v>291733.7584019221</v>
+        <v>387405.0806156914</v>
       </c>
       <c r="P2" t="n">
-        <v>291733.7584019222</v>
+        <v>387405.0806156913</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
-        <v>74852.47981333024</v>
+        <v>99465.11171784473</v>
       </c>
       <c r="F4" t="n">
-        <v>74852.47981333025</v>
+        <v>99465.11171784473</v>
       </c>
       <c r="G4" t="n">
         <v>101012.8540458319</v>
       </c>
       <c r="H4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="I4" t="n">
         <v>101012.8540458319</v>
       </c>
       <c r="J4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="K4" t="n">
         <v>101012.8540458319</v>
       </c>
       <c r="L4" t="n">
+        <v>101012.8540458318</v>
+      </c>
+      <c r="M4" t="n">
         <v>101012.8540458319</v>
-      </c>
-      <c r="M4" t="n">
-        <v>101012.8540458318</v>
       </c>
       <c r="N4" t="n">
         <v>101012.8540458319</v>
       </c>
       <c r="O4" t="n">
-        <v>74852.47981333025</v>
+        <v>99465.11171784472</v>
       </c>
       <c r="P4" t="n">
-        <v>74852.47981333025</v>
+        <v>99465.11171784473</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46007.50883369267</v>
+        <v>-46007.50883369255</v>
       </c>
       <c r="C6" t="n">
-        <v>140397.2245810444</v>
+        <v>140397.2245810446</v>
       </c>
       <c r="D6" t="n">
-        <v>140397.2245810446</v>
+        <v>140397.2245810445</v>
       </c>
       <c r="E6" t="n">
-        <v>92391.89305756765</v>
+        <v>4449.203173253249</v>
       </c>
       <c r="F6" t="n">
-        <v>167722.8442110298</v>
+        <v>211881.490789814</v>
       </c>
       <c r="G6" t="n">
-        <v>85767.96615041122</v>
+        <v>207032.7438784705</v>
       </c>
       <c r="H6" t="n">
+        <v>214658.3659619517</v>
+      </c>
+      <c r="I6" t="n">
+        <v>214658.3659619518</v>
+      </c>
+      <c r="J6" t="n">
+        <v>69124.69602713532</v>
+      </c>
+      <c r="K6" t="n">
         <v>214658.3659619516</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>214658.3659619517</v>
       </c>
-      <c r="J6" t="n">
-        <v>69124.69602713526</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>41527.874756312</v>
+      </c>
+      <c r="N6" t="n">
         <v>214658.3659619517</v>
       </c>
-      <c r="L6" t="n">
-        <v>214658.3659619516</v>
-      </c>
-      <c r="M6" t="n">
-        <v>151784.4289965778</v>
-      </c>
-      <c r="N6" t="n">
-        <v>214658.3659619518</v>
-      </c>
       <c r="O6" t="n">
-        <v>167722.8442110298</v>
+        <v>211881.4907898143</v>
       </c>
       <c r="P6" t="n">
-        <v>167722.8442110299</v>
+        <v>211881.4907898141</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>371.3345117074836</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>167.4345103965589</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27543,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>58.60684960120378</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>32.55524915534545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27621,7 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.45284613863714</v>
+        <v>196.1965332168822</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>33.67693244586621</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>158.4132499202489</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27856,19 +27858,19 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>273.7967702455326</v>
       </c>
       <c r="W8" t="n">
-        <v>264.9722518585098</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>89.29077736814627</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>163.0447290920667</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34708,19 +34710,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34781,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>150.7519016821044</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>75.42597529544652</v>
       </c>
       <c r="O3" t="n">
         <v>556.2278131155941</v>
@@ -34799,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>167.4878420635545</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>150.7519016821044</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,10 +35035,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35100,7 +35102,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366176</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>155.2981118204437</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>657.1153558257613</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099018</v>
+        <v>998.3684688400139</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M12" t="n">
-        <v>209.9034401867719</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>808.5268812099018</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>657.1153558257613</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>214.3617860522075</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>209.903440186772</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>666.8514437878999</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>395.492576038645</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,7 +35974,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>181.2265984013702</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P21" t="n">
-        <v>83.23994392538575</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36367,19 +36369,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36613,10 +36615,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36844,16 +36846,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>319.4744478891323</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
@@ -37090,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="P36" t="n">
-        <v>707.2639729474873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,19 +37554,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>238.7351072494335</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>86.80031487885682</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>408.2599907930289</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099018</v>
+        <v>830.3174788543397</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37853,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>202.3815786090829</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099018</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>47.34186611575466</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>718.8757555570357</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>775.859128433744</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099018</v>
+        <v>981.7058813107097</v>
       </c>
       <c r="O45" t="n">
-        <v>209.903440186772</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1135346.959753701</v>
+        <v>1134628.969638842</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760742</v>
+        <v>698313.6830760738</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>373.3589569695981</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>49.53842828501017</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -825,19 +825,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>58.33552926585426</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>218.775754413495</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -904,13 +904,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>332.4965370384901</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.0873641277763</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1059,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>31.99564926109573</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>118.9693540944499</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>100.4798455975267</v>
       </c>
       <c r="V8" t="n">
-        <v>80.11775047948045</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1302,7 +1302,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>7.098427391118505</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1381,7 +1381,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>312.9009087555611</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1584,19 +1584,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>111.3190970511839</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>47.49404674469013</v>
       </c>
     </row>
     <row r="14">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.70406721933355</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1776,13 +1776,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1827,10 +1827,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>164.9023544709895</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>113.9811728869526</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>221.5389288874897</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2478,10 +2478,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>111.1800590294273</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2620,7 +2620,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>5.470649906744561</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>135.7468035496482</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>154.5259717924262</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>233.5576760474407</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3189,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>60.15466974967032</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>112.2192622328896</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>6.465160544963382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3517,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3669,13 +3669,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>67.42769220727931</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>238.0472340876699</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>121.2482518332236</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>71.78780711257758</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3994,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>96.44420510686372</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>187.21057685784</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>966.965586482338</v>
+        <v>972.9074190595574</v>
       </c>
       <c r="C2" t="n">
-        <v>540.0648564956382</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D2" t="n">
-        <v>520.8126397210425</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E2" t="n">
-        <v>94.83569986890006</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4333,49 +4333,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
         <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O2" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>1745.630772103422</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>1388.141357229671</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W2" t="n">
-        <v>991.7500075300184</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="X2" t="n">
-        <v>984.0704127381697</v>
+        <v>1351.334544629514</v>
       </c>
       <c r="Y2" t="n">
-        <v>982.7735467334641</v>
+        <v>1350.037678624808</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M3" t="n">
-        <v>595.1637600336857</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N3" t="n">
-        <v>669.8354755761777</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O3" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
         <v>1771.166545545054</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>438.7123380797772</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>266.7397749586933</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>103.423002085464</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
         <v>1807.311910299714</v>
@@ -4515,25 +4515,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>2007.737591668685</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U4" t="n">
-        <v>1786.751981150003</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V4" t="n">
-        <v>1786.751981150003</v>
+        <v>1372.637375483783</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>1097.784971656296</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>855.2210751021008</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>628.8783067918429</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>972.9074190595574</v>
+        <v>1287.678729207028</v>
       </c>
       <c r="C5" t="n">
-        <v>950.0470931132616</v>
+        <v>1264.818403260733</v>
       </c>
       <c r="D5" t="n">
-        <v>526.7544722982618</v>
+        <v>841.5257824457328</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>415.5488425935904</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
         <v>79.39509630577632</v>
@@ -4573,46 +4573,46 @@
         <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>1607.594331807357</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>1195.874332975104</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y5" t="n">
-        <v>988.7153793106834</v>
+        <v>1707.527093498559</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>602.6104029955975</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.7643351504313</v>
+        <v>830.4732064905791</v>
       </c>
       <c r="C7" t="n">
-        <v>473.7917720293473</v>
+        <v>658.500643369495</v>
       </c>
       <c r="D7" t="n">
-        <v>310.474999156118</v>
+        <v>658.500643369495</v>
       </c>
       <c r="E7" t="n">
-        <v>144.2667933089716</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2667933089716</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4725,13 +4725,13 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
         <v>1074.392270743915</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688276</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1861.400839946408</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V7" t="n">
-        <v>1579.689372554437</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="W7" t="n">
-        <v>1304.83696872695</v>
+        <v>1489.545840067098</v>
       </c>
       <c r="X7" t="n">
-        <v>1062.273072172755</v>
+        <v>1246.981943512903</v>
       </c>
       <c r="Y7" t="n">
-        <v>835.9303038624969</v>
+        <v>1020.639175202645</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1235.878926328994</v>
+        <v>568.8670150191533</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.766383608102</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>116.829168004879</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>116.829168004879</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>667.4947029893171</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1218.160237973755</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1745.630772103422</v>
+        <v>1798.123593847295</v>
       </c>
       <c r="V8" t="n">
-        <v>1664.703751417078</v>
+        <v>1798.123593847295</v>
       </c>
       <c r="W8" t="n">
-        <v>1664.703751417078</v>
+        <v>1401.732244147642</v>
       </c>
       <c r="X8" t="n">
-        <v>1252.983752584825</v>
+        <v>990.012245315389</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.68688658012</v>
+        <v>988.7153793106834</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N9" t="n">
-        <v>1417.526784297715</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1417.526784297715</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>962.9877020259423</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>791.0151389048583</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>627.698366031629</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>461.4901601844825</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1654.348842875753</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1379.496439048266</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1379.496439048266</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1153.153670738008</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F11" t="n">
         <v>837.1812570720355</v>
@@ -5041,28 +5041,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>100.0769448789901</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1029.701992498267</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2018.08677664988</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>2994.337835136581</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>3839.482485287394</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4547.761764445321</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
         <v>5003.847243949504</v>
@@ -5117,31 +5117,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>525.8009804291112</v>
       </c>
       <c r="L12" t="n">
-        <v>819.4496289866299</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="M12" t="n">
-        <v>819.4496289866299</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="N12" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="O12" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>1019.941294529998</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="D13" t="n">
         <v>847.9687314089136</v>
@@ -5232,19 +5232,19 @@
         <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>1819.976963724326</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>1538.265496332355</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W13" t="n">
-        <v>1425.821963957422</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.258067403227</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="Y13" t="n">
-        <v>1183.258067403227</v>
+        <v>1210.107263242063</v>
       </c>
     </row>
     <row r="14">
@@ -5281,25 +5281,25 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1392.305451315162</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2396.59155273422</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>3372.842611220921</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>4217.987261371733</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.205429563419</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5357,22 +5357,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K15" t="n">
-        <v>690.5618714473296</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L15" t="n">
-        <v>690.5618714473296</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M15" t="n">
-        <v>690.5618714473296</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="N15" t="n">
-        <v>690.5618714473296</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="O15" t="n">
-        <v>690.5618714473296</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P15" t="n">
         <v>1362.599788512017</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>867.4892357902974</v>
+        <v>845.1393234720196</v>
       </c>
       <c r="C16" t="n">
-        <v>867.4892357902974</v>
+        <v>673.1667603509355</v>
       </c>
       <c r="D16" t="n">
-        <v>704.1724629170681</v>
+        <v>509.8499874777062</v>
       </c>
       <c r="E16" t="n">
-        <v>537.9642570699216</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="F16" t="n">
-        <v>366.102482844482</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G16" t="n">
-        <v>199.8455131387141</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
         <v>199.8455131387141</v>
@@ -5466,22 +5466,22 @@
         <v>2233.451358979291</v>
       </c>
       <c r="T16" t="n">
-        <v>2233.451358979291</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U16" t="n">
-        <v>1953.266910479596</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V16" t="n">
-        <v>1671.555443087625</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W16" t="n">
-        <v>1396.703039260138</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="X16" t="n">
-        <v>1154.139142705943</v>
+        <v>1261.648060494343</v>
       </c>
       <c r="Y16" t="n">
-        <v>927.7963743956848</v>
+        <v>1035.305292184085</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5524,13 +5524,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
         <v>4541.493855905342</v>
@@ -5597,22 +5597,22 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>772.98449592559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>772.98449592559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
         <v>1828.971033901635</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.7245472657505</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>380.7519841446665</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>217.4352112714372</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>217.4352112714372</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.8905159778161</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,40 +5740,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1191.617659878699</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>603.8002552472883</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C22" t="n">
-        <v>431.8276921262043</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D22" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W22" t="n">
-        <v>1036.530120513549</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X22" t="n">
-        <v>793.966223959354</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.966223959354</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3114.325629236558</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O23" t="n">
-        <v>3959.47027938737</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P23" t="n">
-        <v>4667.749558545297</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6074,22 +6074,22 @@
         <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>475.3442790273841</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M24" t="n">
-        <v>475.3442790273841</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N24" t="n">
-        <v>475.3442790273841</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>552.7245472657505</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>552.7245472657505</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.8905159778161</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,40 +6214,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1007.532766690843</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6262,10 +6262,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
         <v>3365.887132399955</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
         <v>1828.971033901635</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.8276921262043</v>
+        <v>681.1568861517115</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>509.1843230306275</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2230.151218509418</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1986.811870735318</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1706.627422235623</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1424.915954843651</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1150.063551016164</v>
       </c>
       <c r="X28" t="n">
-        <v>848.3364291485279</v>
+        <v>907.4996544619695</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.99366083827</v>
+        <v>681.1568861517115</v>
       </c>
     </row>
     <row r="29">
@@ -6469,19 +6469,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2184.700581617281</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3160.951640103982</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N30" t="n">
-        <v>1112.773316863137</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1112.773316863137</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
         <v>1828.971033901635</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.8870954416583</v>
+        <v>412.355951603442</v>
       </c>
       <c r="C31" t="n">
-        <v>587.9145323205743</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D31" t="n">
-        <v>424.597759447345</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E31" t="n">
-        <v>258.3895536001985</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1785.357631525569</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1503.646164133598</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1228.793760306111</v>
+        <v>1071.42858517996</v>
       </c>
       <c r="X31" t="n">
-        <v>986.2298637519162</v>
+        <v>828.8646886257657</v>
       </c>
       <c r="Y31" t="n">
-        <v>759.8870954416583</v>
+        <v>602.5219203155077</v>
       </c>
     </row>
     <row r="32">
@@ -6715,13 +6715,13 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
         <v>1364.825557038856</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>163.0650060822632</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>163.0650060822632</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7031,7 +7031,7 @@
         <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
         <v>1364.825557038856</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.604840768015</v>
+        <v>615.9842888225141</v>
       </c>
       <c r="C37" t="n">
-        <v>481.632277646931</v>
+        <v>444.0117257014301</v>
       </c>
       <c r="D37" t="n">
-        <v>481.632277646931</v>
+        <v>280.6949528282008</v>
       </c>
       <c r="E37" t="n">
-        <v>315.4240717997845</v>
+        <v>280.6949528282008</v>
       </c>
       <c r="F37" t="n">
-        <v>315.4240717997845</v>
+        <v>108.8331786027613</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>108.8331786027613</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>108.8331786027613</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7128,19 +7128,19 @@
         <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1869.241345563992</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1587.529878172021</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1312.677474344533</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>1070.113577790339</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.7708094800807</v>
+        <v>806.1502575345799</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883225</v>
@@ -7174,28 +7174,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7250,22 +7250,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>609.4538236255814</v>
+        <v>843.7708094800807</v>
       </c>
       <c r="C40" t="n">
-        <v>437.4812605044974</v>
+        <v>671.7982463589967</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>508.4814734857674</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>342.273267638621</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>170.4114934131814</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1825.090328421558</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1825.090328421558</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V40" t="n">
-        <v>1543.378861029587</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W40" t="n">
-        <v>1268.5264572021</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X40" t="n">
-        <v>1025.962560647905</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y40" t="n">
-        <v>799.6197923376471</v>
+        <v>843.7708094800807</v>
       </c>
     </row>
     <row r="41">
@@ -7411,22 +7411,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2749.496401892824</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="N41" t="n">
-        <v>3725.747460379525</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O41" t="n">
-        <v>4547.761764445321</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P41" t="n">
         <v>4547.761764445321</v>
@@ -7487,28 +7487,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>690.5618714473296</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>690.5618714473296</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M42" t="n">
-        <v>690.5618714473296</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N42" t="n">
-        <v>1779.8768179202</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O42" t="n">
-        <v>1826.745265374797</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P42" t="n">
-        <v>1826.745265374797</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
         <v>1826.745265374797</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3906.615339060613</v>
+        <v>494.2910579095189</v>
       </c>
       <c r="C43" t="n">
-        <v>3734.642775939529</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="D43" t="n">
-        <v>3571.3260030663</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="E43" t="n">
-        <v>3405.117797219153</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="F43" t="n">
-        <v>3233.256022993713</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="G43" t="n">
-        <v>3066.999053287946</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H43" t="n">
-        <v>2923.2027847961</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>5003.847243949504</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>5003.847243949504</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T43" t="n">
-        <v>4760.507896175404</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U43" t="n">
-        <v>4480.323447675709</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V43" t="n">
-        <v>4407.810511198358</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W43" t="n">
-        <v>4132.95810737087</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X43" t="n">
-        <v>4132.95810737087</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y43" t="n">
-        <v>3906.615339060613</v>
+        <v>684.4570266215845</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G44" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H44" t="n">
         <v>134.9738161355189</v>
@@ -7648,22 +7648,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>811.7639428804554</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1741.388990499732</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2745.67509191879</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>3721.926150405491</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405491</v>
+        <v>3957.244510860532</v>
       </c>
       <c r="P44" t="n">
         <v>4430.205429563419</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>3195.159613368996</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>3195.159613368996</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>4031.958421451902</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="M45" t="n">
-        <v>4031.958421451902</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="N45" t="n">
-        <v>5003.847243949504</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="O45" t="n">
-        <v>5003.847243949504</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P45" t="n">
-        <v>5003.847243949504</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
-        <v>5003.847243949504</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3571.3260030663</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C46" t="n">
-        <v>3571.3260030663</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D46" t="n">
-        <v>3571.3260030663</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>3405.117797219153</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
-        <v>3233.256022993713</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>3066.999053287946</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>2923.2027847961</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>4956.808630636678</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>4786.673583155813</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T46" t="n">
-        <v>4543.334235381712</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U46" t="n">
-        <v>4354.232642596015</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V46" t="n">
-        <v>4072.521175204045</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W46" t="n">
-        <v>3797.668771376558</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X46" t="n">
-        <v>3797.668771376558</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y46" t="n">
-        <v>3571.3260030663</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>300.4142109955939</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8066,19 +8066,19 @@
         <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N3" t="n">
-        <v>96.76900350898819</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8221,25 +8221,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>300.4142109955939</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>177.8131985346731</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8312,13 +8312,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8382,7 +8382,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>417.7126065281034</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
@@ -8476,7 +8476,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>184.1630016116738</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>461.8305092169925</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1035.799731739446</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>170.4597422258769</v>
       </c>
       <c r="L12" t="n">
-        <v>749.1541615704315</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8789,10 +8789,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8941,16 +8941,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>251.9371478624388</v>
+        <v>501.6267206475044</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9020,10 +9020,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>300.5735435756951</v>
       </c>
       <c r="P15" t="n">
-        <v>700.5970200580485</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
@@ -9172,16 +9172,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>625.182225377852</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9245,25 +9245,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>417.8918098719783</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>420.03429863453</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,10 +9409,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>304.4845953330648</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9491,19 +9491,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>26.37892716579976</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>369.2860653765454</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,25 +9722,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>117.3609790173131</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>467.4223432042684</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,16 +9965,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10117,7 +10117,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10126,13 +10126,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>716.4444307130257</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10363,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10439,13 +10439,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>420.03429863453</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10834,10 +10834,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>276.0147300838795</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>882.2851839951743</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,25 +10898,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,16 +11068,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>932.91012739026</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>867.7084382103637</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
@@ -11150,16 +11150,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>70.51375583797689</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>754.6403563518451</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
@@ -11308,13 +11308,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>515.313663530319</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>419.3774956265373</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1003.048909524251</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11396,10 +11396,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>160.7847827380282</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>176.5852938824652</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>128.5602418056114</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>75.23590311766341</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>56.16198359623262</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.23940003763305</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>50.56495090172237</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>50.50354611506967</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -24618,10 +24618,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>162.9630470993119</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>15.61718469075893</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>38.54620374177139</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>38.61621282745647</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>52.37513777582056</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>92.3057220321634</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.2643090249412</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>97.16670780143087</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.858720208689135</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>40.43535331127342</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>207.1065456054738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>65.23940003763327</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>90.17202715685875</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>690344.7170802081</v>
+        <v>690344.717080208</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>690344.7170802081</v>
+        <v>690344.717080208</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>690344.717080208</v>
+        <v>690344.7170802081</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679785.8259989563</v>
+        <v>679785.8259989565</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679785.8259989565</v>
+        <v>679785.8259989563</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>407709.8676078143</v>
       </c>
       <c r="C2" t="n">
-        <v>407709.8676078142</v>
+        <v>407709.8676078143</v>
       </c>
       <c r="D2" t="n">
-        <v>407709.8676078141</v>
+        <v>407709.8676078143</v>
       </c>
       <c r="E2" t="n">
         <v>387405.0806156914</v>
       </c>
       <c r="F2" t="n">
-        <v>387405.0806156912</v>
+        <v>387405.0806156913</v>
       </c>
       <c r="G2" t="n">
-        <v>393421.2821962135</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="H2" t="n">
         <v>393421.2821962133</v>
       </c>
       <c r="I2" t="n">
-        <v>393421.2821962134</v>
+        <v>393421.2821962132</v>
       </c>
       <c r="J2" t="n">
+        <v>393421.2821962131</v>
+      </c>
+      <c r="K2" t="n">
         <v>393421.2821962133</v>
       </c>
-      <c r="K2" t="n">
-        <v>393421.2821962131</v>
-      </c>
       <c r="L2" t="n">
+        <v>393421.2821962132</v>
+      </c>
+      <c r="M2" t="n">
         <v>393421.2821962133</v>
-      </c>
-      <c r="M2" t="n">
-        <v>393421.2821962131</v>
       </c>
       <c r="N2" t="n">
         <v>393421.2821962133</v>
       </c>
       <c r="O2" t="n">
+        <v>387405.0806156913</v>
+      </c>
+      <c r="P2" t="n">
         <v>387405.0806156914</v>
-      </c>
-      <c r="P2" t="n">
-        <v>387405.0806156913</v>
       </c>
     </row>
     <row r="3">
@@ -26435,7 +26435,7 @@
         <v>101012.8540458319</v>
       </c>
       <c r="H4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="I4" t="n">
         <v>101012.8540458319</v>
@@ -26447,7 +26447,7 @@
         <v>101012.8540458319</v>
       </c>
       <c r="L4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="M4" t="n">
         <v>101012.8540458319</v>
@@ -26456,7 +26456,7 @@
         <v>101012.8540458319</v>
       </c>
       <c r="O4" t="n">
-        <v>99465.11171784472</v>
+        <v>99465.11171784473</v>
       </c>
       <c r="P4" t="n">
         <v>99465.11171784473</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46007.50883369255</v>
+        <v>-46007.50883369261</v>
       </c>
       <c r="C6" t="n">
         <v>140397.2245810446</v>
       </c>
       <c r="D6" t="n">
-        <v>140397.2245810445</v>
+        <v>140397.2245810446</v>
       </c>
       <c r="E6" t="n">
-        <v>4449.203173253249</v>
+        <v>4376.686076852868</v>
       </c>
       <c r="F6" t="n">
-        <v>211881.490789814</v>
+        <v>211808.9736934136</v>
       </c>
       <c r="G6" t="n">
-        <v>207032.7438784705</v>
+        <v>206981.713216286</v>
       </c>
       <c r="H6" t="n">
-        <v>214658.3659619517</v>
+        <v>214607.3352997674</v>
       </c>
       <c r="I6" t="n">
-        <v>214658.3659619518</v>
+        <v>214607.3352997673</v>
       </c>
       <c r="J6" t="n">
-        <v>69124.69602713532</v>
+        <v>69073.66536495079</v>
       </c>
       <c r="K6" t="n">
-        <v>214658.3659619516</v>
+        <v>214607.3352997674</v>
       </c>
       <c r="L6" t="n">
-        <v>214658.3659619517</v>
+        <v>214607.3352997673</v>
       </c>
       <c r="M6" t="n">
-        <v>41527.874756312</v>
+        <v>41476.84409412793</v>
       </c>
       <c r="N6" t="n">
-        <v>214658.3659619517</v>
+        <v>214607.3352997674</v>
       </c>
       <c r="O6" t="n">
-        <v>211881.4907898143</v>
+        <v>211808.9736934137</v>
       </c>
       <c r="P6" t="n">
-        <v>211881.4907898141</v>
+        <v>211808.9736934137</v>
       </c>
     </row>
   </sheetData>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>42.2909236790166</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>371.3345117074836</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>106.2105945228207</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>58.60684960120378</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>88.37640295400365</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27678,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>196.1965332168822</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>132.5504745275792</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>158.4132499202489</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>155.2915147120251</v>
       </c>
       <c r="V8" t="n">
-        <v>273.7967702455326</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>163.0447290920667</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30380,7 +30380,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M2" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>263.0232516395698</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N3" t="n">
-        <v>75.42597529544652</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34941,25 +34941,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>263.0232516395698</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,14 +35014,14 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>155.2981118204435</v>
-      </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35102,7 +35102,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>395.1371666366176</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
@@ -35196,7 +35196,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>162.8199733981322</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>440.0596680121639</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>998.3684688400139</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>148.0605083925436</v>
       </c>
       <c r="L12" t="n">
-        <v>726.6390748562019</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35661,16 +35661,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>214.3617860522075</v>
+        <v>464.0513588372731</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="P15" t="n">
-        <v>678.8261788532199</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
@@ -35892,16 +35892,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>587.9026025434059</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35965,25 +35965,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>395.492576038645</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>82.84778796434657</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,10 +36129,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>267.053332433633</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36144,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>333.1613907719473</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>94.84589230308353</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>82.84778796434657</v>
@@ -36837,7 +36837,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36846,13 +36846,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>679.0534713570016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -37083,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37399,10 +37399,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>396.8624089123078</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37554,10 +37554,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>238.7351072494335</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,16 +37788,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>895.4788644908282</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>830.3174788543397</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
@@ -37870,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>47.34186611575466</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>718.8757555570357</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
@@ -38028,13 +38028,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>477.7383017200877</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>981.7058813107097</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38116,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
